--- a/Haigused.xlsx
+++ b/Haigused.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rauno\Desktop\Ülikool 15.04\II semester\Sissejuhatus andmeteadusse\Projekt_vaktsineerimisega_hõlmatus\andmestikud_sjuh.andmeteadus_25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09C2500-10F0-44B6-97FE-6C6A04E242E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6325C9F4-F5B7-41C8-8320-AA2B92E742EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30450" yWindow="1650" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Haigused" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Haigused.xlsx
+++ b/Haigused.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rauno\Desktop\Ülikool 15.04\II semester\Sissejuhatus andmeteadusse\Projekt_vaktsineerimisega_hõlmatus\andmestikud_sjuh.andmeteadus_25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rauno\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6325C9F4-F5B7-41C8-8320-AA2B92E742EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1926422D-16EC-43FF-B5E6-719AA5908227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30450" yWindow="1650" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Haigused" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,9 +30,6 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="14YndYChWC0gWbmcR4cKqAZZnftV2tYg+HarzgfZONE="/>
     </ext>
   </extLst>
 </workbook>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">Teetanus </t>
   </si>
   <si>
-    <t xml:space="preserve">Läkaköha </t>
+    <t>Läkaköha</t>
   </si>
   <si>
     <t>Poliomüeliit</t>
@@ -138,8 +138,9 @@
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,56 +220,116 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,37 +472,25 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB1021"/>
+  <dimension ref="A1:M397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:M1"/>
+      <selection sqref="A1:M397"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" customWidth="1"/>
-    <col min="14" max="28" width="8.81640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,23 +530,8 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-    </row>
-    <row r="2" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2004</v>
       </c>
@@ -538,7 +572,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2004</v>
       </c>
@@ -579,7 +613,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2004</v>
       </c>
@@ -620,7 +654,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>2004</v>
       </c>
@@ -661,7 +695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>2004</v>
       </c>
@@ -702,7 +736,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2004</v>
       </c>
@@ -743,7 +777,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>2004</v>
       </c>
@@ -784,7 +818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>2004</v>
       </c>
@@ -825,7 +859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>2004</v>
       </c>
@@ -866,7 +900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2004</v>
       </c>
@@ -907,7 +941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2004</v>
       </c>
@@ -948,7 +982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2004</v>
       </c>
@@ -989,7 +1023,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2004</v>
       </c>
@@ -1030,7 +1064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2004</v>
       </c>
@@ -1071,7 +1105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2004</v>
       </c>
@@ -1112,7 +1146,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>2004</v>
       </c>
@@ -1153,7 +1187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2004</v>
       </c>
@@ -1194,7 +1228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>2004</v>
       </c>
@@ -1235,7 +1269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2005</v>
       </c>
@@ -1276,7 +1310,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>2005</v>
       </c>
@@ -1317,7 +1351,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>2005</v>
       </c>
@@ -1358,7 +1392,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>2005</v>
       </c>
@@ -1399,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>2005</v>
       </c>
@@ -1440,7 +1474,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>2005</v>
       </c>
@@ -1481,7 +1515,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>2005</v>
       </c>
@@ -1522,7 +1556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>2005</v>
       </c>
@@ -1563,7 +1597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>2005</v>
       </c>
@@ -1604,7 +1638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>2005</v>
       </c>
@@ -1645,7 +1679,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>2005</v>
       </c>
@@ -1686,7 +1720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>2005</v>
       </c>
@@ -1727,7 +1761,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>2005</v>
       </c>
@@ -1768,7 +1802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>2005</v>
       </c>
@@ -1809,7 +1843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>2005</v>
       </c>
@@ -1850,7 +1884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>2005</v>
       </c>
@@ -1891,7 +1925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>2005</v>
       </c>
@@ -1932,7 +1966,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>2005</v>
       </c>
@@ -1973,7 +2007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2006</v>
       </c>
@@ -2014,7 +2048,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>2006</v>
       </c>
@@ -2055,7 +2089,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>2006</v>
       </c>
@@ -2096,7 +2130,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>2006</v>
       </c>
@@ -2137,7 +2171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>2006</v>
       </c>
@@ -2178,7 +2212,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>2006</v>
       </c>
@@ -2219,7 +2253,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>2006</v>
       </c>
@@ -2260,7 +2294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>2006</v>
       </c>
@@ -2301,7 +2335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>2006</v>
       </c>
@@ -2342,7 +2376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>2006</v>
       </c>
@@ -2383,7 +2417,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>2006</v>
       </c>
@@ -2424,7 +2458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>2006</v>
       </c>
@@ -2465,7 +2499,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>2006</v>
       </c>
@@ -2506,7 +2540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>2006</v>
       </c>
@@ -2547,7 +2581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>2006</v>
       </c>
@@ -2588,7 +2622,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>2006</v>
       </c>
@@ -2629,7 +2663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>2006</v>
       </c>
@@ -2670,7 +2704,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>2006</v>
       </c>
@@ -2711,7 +2745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2007</v>
       </c>
@@ -2752,7 +2786,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>2007</v>
       </c>
@@ -2793,7 +2827,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>2007</v>
       </c>
@@ -2834,7 +2868,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>2007</v>
       </c>
@@ -2875,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>2007</v>
       </c>
@@ -2916,7 +2950,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>2007</v>
       </c>
@@ -2957,7 +2991,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>2007</v>
       </c>
@@ -2998,7 +3032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>2007</v>
       </c>
@@ -3039,7 +3073,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>2007</v>
       </c>
@@ -3080,7 +3114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>2007</v>
       </c>
@@ -3121,7 +3155,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>2007</v>
       </c>
@@ -3162,7 +3196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>2007</v>
       </c>
@@ -3203,7 +3237,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>2007</v>
       </c>
@@ -3244,7 +3278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>2007</v>
       </c>
@@ -3285,7 +3319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>2007</v>
       </c>
@@ -3326,7 +3360,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>2007</v>
       </c>
@@ -3367,7 +3401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>2007</v>
       </c>
@@ -3408,7 +3442,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>2007</v>
       </c>
@@ -3449,7 +3483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>2008</v>
       </c>
@@ -3490,7 +3524,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>2008</v>
       </c>
@@ -3531,7 +3565,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>2008</v>
       </c>
@@ -3572,7 +3606,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>2008</v>
       </c>
@@ -3613,7 +3647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>2008</v>
       </c>
@@ -3654,7 +3688,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>2008</v>
       </c>
@@ -3695,7 +3729,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>2008</v>
       </c>
@@ -3736,7 +3770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>2008</v>
       </c>
@@ -3777,7 +3811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>2008</v>
       </c>
@@ -3818,7 +3852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>2008</v>
       </c>
@@ -3859,7 +3893,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>2008</v>
       </c>
@@ -3900,7 +3934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>2008</v>
       </c>
@@ -3941,7 +3975,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>2008</v>
       </c>
@@ -3982,7 +4016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>2008</v>
       </c>
@@ -4023,7 +4057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>2008</v>
       </c>
@@ -4064,7 +4098,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>2008</v>
       </c>
@@ -4105,7 +4139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>2008</v>
       </c>
@@ -4146,7 +4180,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>2008</v>
       </c>
@@ -4187,7 +4221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>2009</v>
       </c>
@@ -4228,7 +4262,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>2009</v>
       </c>
@@ -4269,7 +4303,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>2009</v>
       </c>
@@ -4310,7 +4344,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>2009</v>
       </c>
@@ -4351,7 +4385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>2009</v>
       </c>
@@ -4392,7 +4426,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>2009</v>
       </c>
@@ -4433,7 +4467,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>2009</v>
       </c>
@@ -4474,7 +4508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>2009</v>
       </c>
@@ -4515,7 +4549,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>2009</v>
       </c>
@@ -4556,7 +4590,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>2009</v>
       </c>
@@ -4597,7 +4631,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>2009</v>
       </c>
@@ -4638,7 +4672,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>2009</v>
       </c>
@@ -4679,7 +4713,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>2009</v>
       </c>
@@ -4720,7 +4754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>2009</v>
       </c>
@@ -4761,7 +4795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>2009</v>
       </c>
@@ -4802,7 +4836,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>2009</v>
       </c>
@@ -4843,7 +4877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <v>2009</v>
       </c>
@@ -4884,7 +4918,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>2009</v>
       </c>
@@ -4925,7 +4959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>2010</v>
       </c>
@@ -4966,7 +5000,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>2010</v>
       </c>
@@ -5007,7 +5041,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>2010</v>
       </c>
@@ -5048,7 +5082,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>2010</v>
       </c>
@@ -5089,7 +5123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>2010</v>
       </c>
@@ -5130,7 +5164,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>2010</v>
       </c>
@@ -5171,7 +5205,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
         <v>2010</v>
       </c>
@@ -5212,7 +5246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
         <v>2010</v>
       </c>
@@ -5253,7 +5287,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
         <v>2010</v>
       </c>
@@ -5294,7 +5328,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>2010</v>
       </c>
@@ -5335,7 +5369,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <v>2010</v>
       </c>
@@ -5376,7 +5410,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>2010</v>
       </c>
@@ -5417,7 +5451,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
         <v>2010</v>
       </c>
@@ -5458,7 +5492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
         <v>2010</v>
       </c>
@@ -5499,7 +5533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
         <v>2010</v>
       </c>
@@ -5540,7 +5574,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
         <v>2010</v>
       </c>
@@ -5581,7 +5615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
         <v>2010</v>
       </c>
@@ -5622,7 +5656,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
         <v>2010</v>
       </c>
@@ -5663,7 +5697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>2011</v>
       </c>
@@ -5704,7 +5738,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="5">
         <v>2011</v>
       </c>
@@ -5745,7 +5779,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="5">
         <v>2011</v>
       </c>
@@ -5786,7 +5820,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="5">
         <v>2011</v>
       </c>
@@ -5827,7 +5861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="5">
         <v>2011</v>
       </c>
@@ -5868,7 +5902,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
         <v>2011</v>
       </c>
@@ -5909,7 +5943,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="5">
         <v>2011</v>
       </c>
@@ -5950,7 +5984,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="5">
         <v>2011</v>
       </c>
@@ -5991,7 +6025,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="5">
         <v>2011</v>
       </c>
@@ -6032,7 +6066,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="5">
         <v>2011</v>
       </c>
@@ -6073,7 +6107,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="5">
         <v>2011</v>
       </c>
@@ -6114,7 +6148,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="5">
         <v>2011</v>
       </c>
@@ -6155,7 +6189,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="5">
         <v>2011</v>
       </c>
@@ -6196,7 +6230,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
         <v>2011</v>
       </c>
@@ -6237,7 +6271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="5">
         <v>2011</v>
       </c>
@@ -6278,7 +6312,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="5">
         <v>2011</v>
       </c>
@@ -6319,7 +6353,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="5">
         <v>2011</v>
       </c>
@@ -6360,7 +6394,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="5">
         <v>2011</v>
       </c>
@@ -6401,7 +6435,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>2012</v>
       </c>
@@ -6442,7 +6476,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="5">
         <v>2012</v>
       </c>
@@ -6483,7 +6517,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="5">
         <v>2012</v>
       </c>
@@ -6524,7 +6558,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="5">
         <v>2012</v>
       </c>
@@ -6565,7 +6599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="5">
         <v>2012</v>
       </c>
@@ -6606,7 +6640,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" s="5">
         <v>2012</v>
       </c>
@@ -6647,7 +6681,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
         <v>2012</v>
       </c>
@@ -6688,7 +6722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
         <v>2012</v>
       </c>
@@ -6729,7 +6763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" s="5">
         <v>2012</v>
       </c>
@@ -6770,7 +6804,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
         <v>2012</v>
       </c>
@@ -6811,7 +6845,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" s="5">
         <v>2012</v>
       </c>
@@ -6852,7 +6886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
         <v>2012</v>
       </c>
@@ -6893,7 +6927,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
         <v>2012</v>
       </c>
@@ -6934,7 +6968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" s="5">
         <v>2012</v>
       </c>
@@ -6975,7 +7009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" s="5">
         <v>2012</v>
       </c>
@@ -7016,7 +7050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="5">
         <v>2012</v>
       </c>
@@ -7057,7 +7091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="5">
         <v>2012</v>
       </c>
@@ -7098,7 +7132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
         <v>2012</v>
       </c>
@@ -7139,7 +7173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>2013</v>
       </c>
@@ -7180,7 +7214,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
         <v>2013</v>
       </c>
@@ -7221,7 +7255,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <v>2013</v>
       </c>
@@ -7262,7 +7296,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>2013</v>
       </c>
@@ -7303,7 +7337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>2013</v>
       </c>
@@ -7344,7 +7378,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
         <v>2013</v>
       </c>
@@ -7385,7 +7419,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
         <v>2013</v>
       </c>
@@ -7426,7 +7460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
         <v>2013</v>
       </c>
@@ -7467,7 +7501,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" s="5">
         <v>2013</v>
       </c>
@@ -7508,7 +7542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
         <v>2013</v>
       </c>
@@ -7549,7 +7583,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
         <v>2013</v>
       </c>
@@ -7590,7 +7624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175" s="5">
         <v>2013</v>
       </c>
@@ -7631,7 +7665,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" s="5">
         <v>2013</v>
       </c>
@@ -7672,7 +7706,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" s="5">
         <v>2013</v>
       </c>
@@ -7713,7 +7747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" s="5">
         <v>2013</v>
       </c>
@@ -7754,7 +7788,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="5">
         <v>2013</v>
       </c>
@@ -7795,7 +7829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" s="5">
         <v>2013</v>
       </c>
@@ -7836,7 +7870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
         <v>2013</v>
       </c>
@@ -7877,7 +7911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>2014</v>
       </c>
@@ -7918,7 +7952,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" s="5">
         <v>2014</v>
       </c>
@@ -7959,7 +7993,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" s="5">
         <v>2014</v>
       </c>
@@ -8000,7 +8034,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" s="5">
         <v>2014</v>
       </c>
@@ -8041,7 +8075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
         <v>2014</v>
       </c>
@@ -8082,7 +8116,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
         <v>2014</v>
       </c>
@@ -8123,7 +8157,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
         <v>2014</v>
       </c>
@@ -8164,7 +8198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" s="5">
         <v>2014</v>
       </c>
@@ -8205,7 +8239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" s="5">
         <v>2014</v>
       </c>
@@ -8246,7 +8280,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
         <v>2014</v>
       </c>
@@ -8287,7 +8321,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" s="5">
         <v>2014</v>
       </c>
@@ -8328,7 +8362,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" s="5">
         <v>2014</v>
       </c>
@@ -8369,7 +8403,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" s="5">
         <v>2014</v>
       </c>
@@ -8410,7 +8444,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195" s="5">
         <v>2014</v>
       </c>
@@ -8451,7 +8485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196" s="5">
         <v>2014</v>
       </c>
@@ -8492,7 +8526,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" s="5">
         <v>2014</v>
       </c>
@@ -8533,7 +8567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" s="5">
         <v>2014</v>
       </c>
@@ -8574,7 +8608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" s="5">
         <v>2014</v>
       </c>
@@ -8615,7 +8649,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>2015</v>
       </c>
@@ -8656,7 +8690,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201" s="5">
         <v>2015</v>
       </c>
@@ -8697,7 +8731,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" s="5">
         <v>2015</v>
       </c>
@@ -8738,7 +8772,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203" s="5">
         <v>2015</v>
       </c>
@@ -8779,7 +8813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204" s="5">
         <v>2015</v>
       </c>
@@ -8820,7 +8854,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205" s="5">
         <v>2015</v>
       </c>
@@ -8861,7 +8895,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206" s="5">
         <v>2015</v>
       </c>
@@ -8902,7 +8936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" s="5">
         <v>2015</v>
       </c>
@@ -8943,7 +8977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208" s="5">
         <v>2015</v>
       </c>
@@ -8984,7 +9018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" s="5">
         <v>2015</v>
       </c>
@@ -9025,7 +9059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210" s="5">
         <v>2015</v>
       </c>
@@ -9066,7 +9100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211" s="5">
         <v>2015</v>
       </c>
@@ -9107,7 +9141,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A212" s="5">
         <v>2015</v>
       </c>
@@ -9148,7 +9182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" s="5">
         <v>2015</v>
       </c>
@@ -9189,7 +9223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214" s="5">
         <v>2015</v>
       </c>
@@ -9230,7 +9264,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" s="5">
         <v>2015</v>
       </c>
@@ -9271,7 +9305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216" s="5">
         <v>2015</v>
       </c>
@@ -9312,7 +9346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217" s="5">
         <v>2015</v>
       </c>
@@ -9353,7 +9387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>2016</v>
       </c>
@@ -9394,7 +9428,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219" s="5">
         <v>2016</v>
       </c>
@@ -9435,7 +9469,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220" s="5">
         <v>2016</v>
       </c>
@@ -9476,7 +9510,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221" s="5">
         <v>2016</v>
       </c>
@@ -9517,7 +9551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" s="5">
         <v>2016</v>
       </c>
@@ -9558,7 +9592,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223" s="5">
         <v>2016</v>
       </c>
@@ -9599,7 +9633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224" s="5">
         <v>2016</v>
       </c>
@@ -9640,7 +9674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" s="5">
         <v>2016</v>
       </c>
@@ -9681,7 +9715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226" s="5">
         <v>2016</v>
       </c>
@@ -9722,7 +9756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" s="5">
         <v>2016</v>
       </c>
@@ -9763,7 +9797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228" s="5">
         <v>2016</v>
       </c>
@@ -9804,7 +9838,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" s="5">
         <v>2016</v>
       </c>
@@ -9845,7 +9879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230" s="5">
         <v>2016</v>
       </c>
@@ -9886,7 +9920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231" s="5">
         <v>2016</v>
       </c>
@@ -9927,7 +9961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232" s="5">
         <v>2016</v>
       </c>
@@ -9968,7 +10002,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233" s="5">
         <v>2016</v>
       </c>
@@ -10009,7 +10043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A234" s="5">
         <v>2016</v>
       </c>
@@ -10050,7 +10084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A235" s="5">
         <v>2016</v>
       </c>
@@ -10091,7 +10125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>2017</v>
       </c>
@@ -10132,7 +10166,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A237" s="5">
         <v>2017</v>
       </c>
@@ -10173,7 +10207,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A238" s="5">
         <v>2017</v>
       </c>
@@ -10214,7 +10248,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A239" s="5">
         <v>2017</v>
       </c>
@@ -10255,7 +10289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A240" s="5">
         <v>2017</v>
       </c>
@@ -10296,7 +10330,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A241" s="5">
         <v>2017</v>
       </c>
@@ -10337,7 +10371,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A242" s="5">
         <v>2017</v>
       </c>
@@ -10378,7 +10412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A243" s="5">
         <v>2017</v>
       </c>
@@ -10419,7 +10453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A244" s="5">
         <v>2017</v>
       </c>
@@ -10460,7 +10494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A245" s="5">
         <v>2017</v>
       </c>
@@ -10501,7 +10535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A246" s="5">
         <v>2017</v>
       </c>
@@ -10542,7 +10576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A247" s="5">
         <v>2017</v>
       </c>
@@ -10583,7 +10617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A248" s="5">
         <v>2017</v>
       </c>
@@ -10624,7 +10658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A249" s="5">
         <v>2017</v>
       </c>
@@ -10665,7 +10699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A250" s="5">
         <v>2017</v>
       </c>
@@ -10706,7 +10740,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A251" s="5">
         <v>2017</v>
       </c>
@@ -10747,7 +10781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A252" s="5">
         <v>2017</v>
       </c>
@@ -10788,7 +10822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A253" s="5">
         <v>2017</v>
       </c>
@@ -10829,7 +10863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>2018</v>
       </c>
@@ -10870,7 +10904,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A255" s="5">
         <v>2018</v>
       </c>
@@ -10911,7 +10945,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A256" s="5">
         <v>2018</v>
       </c>
@@ -10952,7 +10986,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A257" s="5">
         <v>2018</v>
       </c>
@@ -10993,7 +11027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A258" s="5">
         <v>2018</v>
       </c>
@@ -11034,7 +11068,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A259" s="5">
         <v>2018</v>
       </c>
@@ -11075,7 +11109,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A260" s="5">
         <v>2018</v>
       </c>
@@ -11116,7 +11150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A261" s="5">
         <v>2018</v>
       </c>
@@ -11157,7 +11191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A262" s="5">
         <v>2018</v>
       </c>
@@ -11198,7 +11232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A263" s="5">
         <v>2018</v>
       </c>
@@ -11239,7 +11273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A264" s="5">
         <v>2018</v>
       </c>
@@ -11280,7 +11314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A265" s="5">
         <v>2018</v>
       </c>
@@ -11321,7 +11355,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A266" s="5">
         <v>2018</v>
       </c>
@@ -11362,7 +11396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A267" s="5">
         <v>2018</v>
       </c>
@@ -11403,7 +11437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A268" s="5">
         <v>2018</v>
       </c>
@@ -11444,7 +11478,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A269" s="5">
         <v>2018</v>
       </c>
@@ -11485,7 +11519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A270" s="5">
         <v>2018</v>
       </c>
@@ -11526,7 +11560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A271" s="5">
         <v>2018</v>
       </c>
@@ -11567,7 +11601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>2019</v>
       </c>
@@ -11608,7 +11642,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A273" s="5">
         <v>2019</v>
       </c>
@@ -11649,7 +11683,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A274" s="5">
         <v>2019</v>
       </c>
@@ -11690,7 +11724,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A275" s="5">
         <v>2019</v>
       </c>
@@ -11731,7 +11765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A276" s="5">
         <v>2019</v>
       </c>
@@ -11772,7 +11806,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A277" s="5">
         <v>2019</v>
       </c>
@@ -11813,7 +11847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A278" s="5">
         <v>2019</v>
       </c>
@@ -11854,7 +11888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A279" s="5">
         <v>2019</v>
       </c>
@@ -11895,7 +11929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A280" s="5">
         <v>2019</v>
       </c>
@@ -11936,7 +11970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A281" s="5">
         <v>2019</v>
       </c>
@@ -11977,7 +12011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A282" s="5">
         <v>2019</v>
       </c>
@@ -12018,7 +12052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A283" s="5">
         <v>2019</v>
       </c>
@@ -12059,7 +12093,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A284" s="5">
         <v>2019</v>
       </c>
@@ -12100,7 +12134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A285" s="5">
         <v>2019</v>
       </c>
@@ -12141,7 +12175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A286" s="5">
         <v>2019</v>
       </c>
@@ -12182,7 +12216,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A287" s="5">
         <v>2019</v>
       </c>
@@ -12223,7 +12257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A288" s="5">
         <v>2019</v>
       </c>
@@ -12264,7 +12298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A289" s="5">
         <v>2019</v>
       </c>
@@ -12305,7 +12339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>2020</v>
       </c>
@@ -12346,7 +12380,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A291" s="3">
         <v>2020</v>
       </c>
@@ -12387,7 +12421,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A292" s="3">
         <v>2020</v>
       </c>
@@ -12428,7 +12462,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A293" s="3">
         <v>2020</v>
       </c>
@@ -12469,7 +12503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A294" s="3">
         <v>2020</v>
       </c>
@@ -12510,7 +12544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A295" s="3">
         <v>2020</v>
       </c>
@@ -12551,7 +12585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A296" s="3">
         <v>2020</v>
       </c>
@@ -12592,7 +12626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A297" s="3">
         <v>2020</v>
       </c>
@@ -12633,7 +12667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A298" s="3">
         <v>2020</v>
       </c>
@@ -12674,7 +12708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A299" s="3">
         <v>2020</v>
       </c>
@@ -12715,7 +12749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A300" s="3">
         <v>2020</v>
       </c>
@@ -12756,7 +12790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A301" s="3">
         <v>2020</v>
       </c>
@@ -12797,7 +12831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A302" s="3">
         <v>2020</v>
       </c>
@@ -12838,7 +12872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A303" s="3">
         <v>2020</v>
       </c>
@@ -12879,7 +12913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A304" s="3">
         <v>2020</v>
       </c>
@@ -12920,7 +12954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A305" s="3">
         <v>2020</v>
       </c>
@@ -12961,7 +12995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A306" s="3">
         <v>2020</v>
       </c>
@@ -13002,7 +13036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A307" s="3">
         <v>2020</v>
       </c>
@@ -13043,7 +13077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>2021</v>
       </c>
@@ -13084,7 +13118,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="309" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A309" s="3">
         <v>2021</v>
       </c>
@@ -13125,7 +13159,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="310" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A310" s="5">
         <v>2021</v>
       </c>
@@ -13166,7 +13200,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A311" s="3">
         <v>2021</v>
       </c>
@@ -13207,7 +13241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A312" s="5">
         <v>2021</v>
       </c>
@@ -13248,7 +13282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A313" s="5">
         <v>2021</v>
       </c>
@@ -13289,7 +13323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A314" s="5">
         <v>2021</v>
       </c>
@@ -13330,7 +13364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A315" s="3">
         <v>2021</v>
       </c>
@@ -13371,7 +13405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A316" s="5">
         <v>2021</v>
       </c>
@@ -13412,7 +13446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A317" s="3">
         <v>2021</v>
       </c>
@@ -13453,7 +13487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A318" s="5">
         <v>2021</v>
       </c>
@@ -13494,7 +13528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A319" s="3">
         <v>2021</v>
       </c>
@@ -13535,7 +13569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A320" s="5">
         <v>2021</v>
       </c>
@@ -13576,7 +13610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A321" s="3">
         <v>2021</v>
       </c>
@@ -13617,7 +13651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A322" s="5">
         <v>2021</v>
       </c>
@@ -13658,7 +13692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A323" s="3">
         <v>2021</v>
       </c>
@@ -13699,7 +13733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A324" s="5">
         <v>2021</v>
       </c>
@@ -13740,7 +13774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A325" s="3">
         <v>2021</v>
       </c>
@@ -13781,7 +13815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>2022</v>
       </c>
@@ -13822,7 +13856,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A327" s="3">
         <v>2022</v>
       </c>
@@ -13863,7 +13897,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="328" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A328" s="3">
         <v>2022</v>
       </c>
@@ -13904,7 +13938,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A329" s="3">
         <v>2022</v>
       </c>
@@ -13945,7 +13979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A330" s="3">
         <v>2022</v>
       </c>
@@ -13986,7 +14020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="331" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A331" s="3">
         <v>2022</v>
       </c>
@@ -14027,7 +14061,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A332" s="3">
         <v>2022</v>
       </c>
@@ -14068,7 +14102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A333" s="3">
         <v>2022</v>
       </c>
@@ -14109,7 +14143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="334" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A334" s="3">
         <v>2022</v>
       </c>
@@ -14150,7 +14184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A335" s="3">
         <v>2022</v>
       </c>
@@ -14191,7 +14225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="336" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A336" s="3">
         <v>2022</v>
       </c>
@@ -14232,7 +14266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A337" s="3">
         <v>2022</v>
       </c>
@@ -14273,7 +14307,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A338" s="3">
         <v>2022</v>
       </c>
@@ -14314,7 +14348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A339" s="3">
         <v>2022</v>
       </c>
@@ -14355,7 +14389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A340" s="3">
         <v>2022</v>
       </c>
@@ -14396,7 +14430,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A341" s="3">
         <v>2022</v>
       </c>
@@ -14437,7 +14471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A342" s="3">
         <v>2022</v>
       </c>
@@ -14478,7 +14512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="343" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A343" s="3">
         <v>2022</v>
       </c>
@@ -14519,7 +14553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>2023</v>
       </c>
@@ -14560,7 +14594,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="345" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A345" s="3">
         <v>2023</v>
       </c>
@@ -14601,7 +14635,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="346" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A346" s="3">
         <v>2023</v>
       </c>
@@ -14642,7 +14676,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A347" s="3">
         <v>2023</v>
       </c>
@@ -14683,7 +14717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A348" s="3">
         <v>2023</v>
       </c>
@@ -14724,7 +14758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="349" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A349" s="3">
         <v>2023</v>
       </c>
@@ -14765,7 +14799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A350" s="3">
         <v>2023</v>
       </c>
@@ -14806,7 +14840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A351" s="3">
         <v>2023</v>
       </c>
@@ -14847,7 +14881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="352" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A352" s="3">
         <v>2023</v>
       </c>
@@ -14888,7 +14922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="353" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A353" s="3">
         <v>2023</v>
       </c>
@@ -14929,7 +14963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="354" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A354" s="3">
         <v>2023</v>
       </c>
@@ -14970,7 +15004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="355" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A355" s="3">
         <v>2023</v>
       </c>
@@ -15011,7 +15045,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="356" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A356" s="3">
         <v>2023</v>
       </c>
@@ -15052,7 +15086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A357" s="3">
         <v>2023</v>
       </c>
@@ -15093,7 +15127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="358" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A358" s="3">
         <v>2023</v>
       </c>
@@ -15134,7 +15168,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="359" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A359" s="3">
         <v>2023</v>
       </c>
@@ -15175,7 +15209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A360" s="3">
         <v>2023</v>
       </c>
@@ -15216,7 +15250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="361" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A361" s="3">
         <v>2023</v>
       </c>
@@ -15257,7 +15291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>2024</v>
       </c>
@@ -15298,7 +15332,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="363" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A363" s="3">
         <v>2024</v>
       </c>
@@ -15339,7 +15373,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="364" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A364" s="3">
         <v>2024</v>
       </c>
@@ -15380,7 +15414,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="365" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A365" s="3">
         <v>2024</v>
       </c>
@@ -15421,7 +15455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A366" s="3">
         <v>2024</v>
       </c>
@@ -15462,7 +15496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A367" s="3">
         <v>2024</v>
       </c>
@@ -15503,7 +15537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A368" s="3">
         <v>2024</v>
       </c>
@@ -15544,7 +15578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A369" s="3">
         <v>2024</v>
       </c>
@@ -15585,7 +15619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="370" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A370" s="3">
         <v>2024</v>
       </c>
@@ -15626,7 +15660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="371" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A371" s="3">
         <v>2024</v>
       </c>
@@ -15667,7 +15701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A372" s="3">
         <v>2024</v>
       </c>
@@ -15708,7 +15742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A373" s="3">
         <v>2024</v>
       </c>
@@ -15749,7 +15783,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="374" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A374" s="3">
         <v>2024</v>
       </c>
@@ -15790,7 +15824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A375" s="3">
         <v>2024</v>
       </c>
@@ -15831,7 +15865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A376" s="3">
         <v>2024</v>
       </c>
@@ -15872,7 +15906,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A377" s="3">
         <v>2024</v>
       </c>
@@ -15913,7 +15947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A378" s="3">
         <v>2024</v>
       </c>
@@ -15954,7 +15988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A379" s="3">
         <v>2024</v>
       </c>
@@ -15995,7 +16029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>2025</v>
       </c>
@@ -16018,7 +16052,7 @@
         <v>3</v>
       </c>
       <c r="H380" s="5">
-        <f t="shared" ref="H380:I380" si="0">SUM(H381:H397)</f>
+        <f t="shared" ref="H380:I383" si="0">SUM(H381:H397)</f>
         <v>0</v>
       </c>
       <c r="I380" s="5">
@@ -16038,7 +16072,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="381" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A381" s="3">
         <v>2025</v>
       </c>
@@ -16061,11 +16095,11 @@
         <v>0</v>
       </c>
       <c r="H381" s="5">
-        <f t="shared" ref="H381:I381" si="1">SUM(H382:H398)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I381" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J381" s="5">
@@ -16081,7 +16115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="382" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A382" s="3">
         <v>2025</v>
       </c>
@@ -16104,11 +16138,11 @@
         <v>1</v>
       </c>
       <c r="H382" s="5">
-        <f t="shared" ref="H382:I382" si="2">SUM(H383:H399)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I382" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J382" s="5">
@@ -16124,7 +16158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A383" s="3">
         <v>2025</v>
       </c>
@@ -16147,11 +16181,11 @@
         <v>2</v>
       </c>
       <c r="H383" s="5">
-        <f t="shared" ref="H383:I383" si="3">SUM(H384:H400)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I383" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J383" s="5">
@@ -16167,7 +16201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A384" s="3">
         <v>2025</v>
       </c>
@@ -16190,11 +16224,11 @@
         <v>0</v>
       </c>
       <c r="H384" s="5">
-        <f t="shared" ref="H384:I384" si="4">SUM(H386:H401)</f>
+        <f t="shared" ref="H384:I384" si="1">SUM(H386:H401)</f>
         <v>0</v>
       </c>
       <c r="I384" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J384" s="5">
@@ -16210,7 +16244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A385" s="3">
         <v>2025</v>
       </c>
@@ -16251,7 +16285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A386" s="3">
         <v>2025</v>
       </c>
@@ -16274,11 +16308,11 @@
         <v>0</v>
       </c>
       <c r="H386" s="5">
-        <f t="shared" ref="H386:I386" si="5">SUM(H387:H403)</f>
+        <f t="shared" ref="H386:I396" si="2">SUM(H387:H403)</f>
         <v>0</v>
       </c>
       <c r="I386" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J386" s="5">
@@ -16294,7 +16328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A387" s="3">
         <v>2025</v>
       </c>
@@ -16317,11 +16351,11 @@
         <v>0</v>
       </c>
       <c r="H387" s="5">
-        <f t="shared" ref="H387:I387" si="6">SUM(H388:H404)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I387" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J387" s="5">
@@ -16337,7 +16371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A388" s="3">
         <v>2025</v>
       </c>
@@ -16360,11 +16394,11 @@
         <v>0</v>
       </c>
       <c r="H388" s="5">
-        <f t="shared" ref="H388:I388" si="7">SUM(H389:H405)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I388" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J388" s="5">
@@ -16380,7 +16414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A389" s="3">
         <v>2025</v>
       </c>
@@ -16403,11 +16437,11 @@
         <v>0</v>
       </c>
       <c r="H389" s="5">
-        <f t="shared" ref="H389:I389" si="8">SUM(H390:H406)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I389" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J389" s="5">
@@ -16423,7 +16457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A390" s="3">
         <v>2025</v>
       </c>
@@ -16446,11 +16480,11 @@
         <v>0</v>
       </c>
       <c r="H390" s="5">
-        <f t="shared" ref="H390:I390" si="9">SUM(H391:H407)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I390" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J390" s="5">
@@ -16466,7 +16500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A391" s="3">
         <v>2025</v>
       </c>
@@ -16489,11 +16523,11 @@
         <v>0</v>
       </c>
       <c r="H391" s="5">
-        <f t="shared" ref="H391:I391" si="10">SUM(H392:H408)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I391" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J391" s="5">
@@ -16509,7 +16543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A392" s="3">
         <v>2025</v>
       </c>
@@ -16532,11 +16566,11 @@
         <v>0</v>
       </c>
       <c r="H392" s="5">
-        <f t="shared" ref="H392:I392" si="11">SUM(H393:H409)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I392" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J392" s="5">
@@ -16552,7 +16586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A393" s="3">
         <v>2025</v>
       </c>
@@ -16575,11 +16609,11 @@
         <v>0</v>
       </c>
       <c r="H393" s="5">
-        <f t="shared" ref="H393:I393" si="12">SUM(H394:H410)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I393" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J393" s="5">
@@ -16595,7 +16629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A394" s="3">
         <v>2025</v>
       </c>
@@ -16618,11 +16652,11 @@
         <v>0</v>
       </c>
       <c r="H394" s="5">
-        <f t="shared" ref="H394:I394" si="13">SUM(H395:H411)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I394" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J394" s="5">
@@ -16638,7 +16672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="395" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A395" s="3">
         <v>2025</v>
       </c>
@@ -16661,11 +16695,11 @@
         <v>0</v>
       </c>
       <c r="H395" s="5">
-        <f t="shared" ref="H395:I395" si="14">SUM(H396:H412)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I395" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J395" s="5">
@@ -16681,7 +16715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A396" s="3">
         <v>2025</v>
       </c>
@@ -16704,11 +16738,11 @@
         <v>0</v>
       </c>
       <c r="H396" s="5">
-        <f t="shared" ref="H396:I396" si="15">SUM(H397:H413)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I396" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J396" s="5">
@@ -16724,7 +16758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A397" s="3">
         <v>2025</v>
       </c>
@@ -16766,2504 +16800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A398" s="1"/>
-      <c r="L398" s="6"/>
-    </row>
-    <row r="399" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A399" s="1"/>
-      <c r="L399" s="6"/>
-    </row>
-    <row r="400" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A400" s="1"/>
-      <c r="L400" s="6"/>
-    </row>
-    <row r="401" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A401" s="1"/>
-      <c r="L401" s="6"/>
-    </row>
-    <row r="402" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A402" s="1"/>
-      <c r="L402" s="6"/>
-    </row>
-    <row r="403" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A403" s="1"/>
-      <c r="L403" s="6"/>
-    </row>
-    <row r="404" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A404" s="1"/>
-      <c r="L404" s="6"/>
-    </row>
-    <row r="405" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A405" s="1"/>
-      <c r="L405" s="6"/>
-    </row>
-    <row r="406" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A406" s="1"/>
-      <c r="L406" s="6"/>
-    </row>
-    <row r="407" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A407" s="1"/>
-      <c r="L407" s="6"/>
-    </row>
-    <row r="408" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A408" s="1"/>
-      <c r="L408" s="6"/>
-    </row>
-    <row r="409" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A409" s="1"/>
-      <c r="L409" s="6"/>
-    </row>
-    <row r="410" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A410" s="1"/>
-      <c r="L410" s="6"/>
-    </row>
-    <row r="411" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A411" s="1"/>
-      <c r="L411" s="6"/>
-    </row>
-    <row r="412" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A412" s="1"/>
-      <c r="L412" s="6"/>
-    </row>
-    <row r="413" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A413" s="1"/>
-      <c r="L413" s="6"/>
-    </row>
-    <row r="414" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A414" s="1"/>
-      <c r="L414" s="6"/>
-    </row>
-    <row r="415" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A415" s="1"/>
-      <c r="L415" s="6"/>
-    </row>
-    <row r="416" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A416" s="1"/>
-      <c r="L416" s="6"/>
-    </row>
-    <row r="417" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A417" s="1"/>
-      <c r="L417" s="6"/>
-    </row>
-    <row r="418" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A418" s="1"/>
-      <c r="L418" s="6"/>
-    </row>
-    <row r="419" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A419" s="1"/>
-      <c r="L419" s="6"/>
-    </row>
-    <row r="420" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A420" s="1"/>
-      <c r="L420" s="6"/>
-    </row>
-    <row r="421" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A421" s="1"/>
-      <c r="L421" s="6"/>
-    </row>
-    <row r="422" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A422" s="1"/>
-      <c r="L422" s="6"/>
-    </row>
-    <row r="423" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A423" s="1"/>
-      <c r="L423" s="6"/>
-    </row>
-    <row r="424" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A424" s="1"/>
-      <c r="L424" s="6"/>
-    </row>
-    <row r="425" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A425" s="1"/>
-      <c r="L425" s="6"/>
-    </row>
-    <row r="426" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A426" s="1"/>
-      <c r="L426" s="6"/>
-    </row>
-    <row r="427" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A427" s="1"/>
-      <c r="L427" s="6"/>
-    </row>
-    <row r="428" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A428" s="1"/>
-      <c r="L428" s="6"/>
-    </row>
-    <row r="429" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A429" s="1"/>
-      <c r="L429" s="6"/>
-    </row>
-    <row r="430" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A430" s="1"/>
-      <c r="L430" s="6"/>
-    </row>
-    <row r="431" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A431" s="1"/>
-      <c r="L431" s="6"/>
-    </row>
-    <row r="432" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A432" s="1"/>
-      <c r="L432" s="6"/>
-    </row>
-    <row r="433" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A433" s="1"/>
-      <c r="L433" s="6"/>
-    </row>
-    <row r="434" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A434" s="1"/>
-      <c r="L434" s="6"/>
-    </row>
-    <row r="435" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A435" s="1"/>
-      <c r="L435" s="6"/>
-    </row>
-    <row r="436" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A436" s="1"/>
-      <c r="L436" s="6"/>
-    </row>
-    <row r="437" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A437" s="1"/>
-      <c r="L437" s="6"/>
-    </row>
-    <row r="438" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A438" s="1"/>
-      <c r="L438" s="6"/>
-    </row>
-    <row r="439" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A439" s="1"/>
-      <c r="L439" s="6"/>
-    </row>
-    <row r="440" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A440" s="1"/>
-      <c r="L440" s="6"/>
-    </row>
-    <row r="441" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A441" s="1"/>
-      <c r="L441" s="6"/>
-    </row>
-    <row r="442" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A442" s="1"/>
-      <c r="L442" s="6"/>
-    </row>
-    <row r="443" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A443" s="1"/>
-      <c r="L443" s="6"/>
-    </row>
-    <row r="444" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A444" s="1"/>
-      <c r="L444" s="6"/>
-    </row>
-    <row r="445" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A445" s="1"/>
-      <c r="L445" s="6"/>
-    </row>
-    <row r="446" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A446" s="1"/>
-      <c r="L446" s="6"/>
-    </row>
-    <row r="447" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A447" s="1"/>
-      <c r="L447" s="6"/>
-    </row>
-    <row r="448" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A448" s="1"/>
-      <c r="L448" s="6"/>
-    </row>
-    <row r="449" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A449" s="1"/>
-      <c r="L449" s="6"/>
-    </row>
-    <row r="450" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A450" s="1"/>
-      <c r="L450" s="6"/>
-    </row>
-    <row r="451" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A451" s="1"/>
-      <c r="L451" s="6"/>
-    </row>
-    <row r="452" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A452" s="1"/>
-      <c r="L452" s="6"/>
-    </row>
-    <row r="453" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A453" s="1"/>
-      <c r="L453" s="6"/>
-    </row>
-    <row r="454" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A454" s="1"/>
-      <c r="L454" s="6"/>
-    </row>
-    <row r="455" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A455" s="1"/>
-      <c r="L455" s="6"/>
-    </row>
-    <row r="456" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A456" s="1"/>
-      <c r="L456" s="6"/>
-    </row>
-    <row r="457" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A457" s="1"/>
-      <c r="L457" s="6"/>
-    </row>
-    <row r="458" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A458" s="1"/>
-      <c r="L458" s="6"/>
-    </row>
-    <row r="459" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A459" s="1"/>
-      <c r="L459" s="6"/>
-    </row>
-    <row r="460" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A460" s="1"/>
-      <c r="L460" s="6"/>
-    </row>
-    <row r="461" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A461" s="1"/>
-      <c r="L461" s="6"/>
-    </row>
-    <row r="462" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A462" s="1"/>
-      <c r="L462" s="6"/>
-    </row>
-    <row r="463" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A463" s="1"/>
-      <c r="L463" s="6"/>
-    </row>
-    <row r="464" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A464" s="1"/>
-      <c r="L464" s="6"/>
-    </row>
-    <row r="465" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A465" s="1"/>
-      <c r="L465" s="6"/>
-    </row>
-    <row r="466" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A466" s="1"/>
-      <c r="L466" s="6"/>
-    </row>
-    <row r="467" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A467" s="1"/>
-      <c r="L467" s="6"/>
-    </row>
-    <row r="468" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A468" s="1"/>
-      <c r="L468" s="6"/>
-    </row>
-    <row r="469" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A469" s="1"/>
-      <c r="L469" s="6"/>
-    </row>
-    <row r="470" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A470" s="1"/>
-      <c r="L470" s="6"/>
-    </row>
-    <row r="471" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A471" s="1"/>
-      <c r="L471" s="6"/>
-    </row>
-    <row r="472" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A472" s="1"/>
-      <c r="L472" s="6"/>
-    </row>
-    <row r="473" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A473" s="1"/>
-      <c r="L473" s="6"/>
-    </row>
-    <row r="474" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A474" s="1"/>
-      <c r="L474" s="6"/>
-    </row>
-    <row r="475" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A475" s="1"/>
-      <c r="L475" s="6"/>
-    </row>
-    <row r="476" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A476" s="1"/>
-      <c r="L476" s="6"/>
-    </row>
-    <row r="477" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A477" s="1"/>
-      <c r="L477" s="6"/>
-    </row>
-    <row r="478" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A478" s="1"/>
-      <c r="L478" s="6"/>
-    </row>
-    <row r="479" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A479" s="1"/>
-      <c r="L479" s="6"/>
-    </row>
-    <row r="480" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A480" s="1"/>
-      <c r="L480" s="6"/>
-    </row>
-    <row r="481" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A481" s="1"/>
-      <c r="L481" s="6"/>
-    </row>
-    <row r="482" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A482" s="1"/>
-      <c r="L482" s="6"/>
-    </row>
-    <row r="483" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A483" s="1"/>
-      <c r="L483" s="6"/>
-    </row>
-    <row r="484" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A484" s="1"/>
-      <c r="L484" s="6"/>
-    </row>
-    <row r="485" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A485" s="1"/>
-      <c r="L485" s="6"/>
-    </row>
-    <row r="486" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A486" s="1"/>
-      <c r="L486" s="6"/>
-    </row>
-    <row r="487" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A487" s="1"/>
-      <c r="L487" s="6"/>
-    </row>
-    <row r="488" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A488" s="1"/>
-      <c r="L488" s="6"/>
-    </row>
-    <row r="489" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A489" s="1"/>
-      <c r="L489" s="6"/>
-    </row>
-    <row r="490" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A490" s="1"/>
-      <c r="L490" s="6"/>
-    </row>
-    <row r="491" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A491" s="1"/>
-      <c r="L491" s="6"/>
-    </row>
-    <row r="492" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A492" s="1"/>
-      <c r="L492" s="6"/>
-    </row>
-    <row r="493" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A493" s="1"/>
-      <c r="L493" s="6"/>
-    </row>
-    <row r="494" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A494" s="1"/>
-      <c r="L494" s="6"/>
-    </row>
-    <row r="495" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A495" s="1"/>
-      <c r="L495" s="6"/>
-    </row>
-    <row r="496" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A496" s="1"/>
-      <c r="L496" s="6"/>
-    </row>
-    <row r="497" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A497" s="1"/>
-      <c r="L497" s="6"/>
-    </row>
-    <row r="498" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A498" s="1"/>
-      <c r="L498" s="6"/>
-    </row>
-    <row r="499" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A499" s="1"/>
-      <c r="L499" s="6"/>
-    </row>
-    <row r="500" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A500" s="1"/>
-      <c r="L500" s="6"/>
-    </row>
-    <row r="501" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A501" s="1"/>
-      <c r="L501" s="6"/>
-    </row>
-    <row r="502" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A502" s="1"/>
-      <c r="L502" s="6"/>
-    </row>
-    <row r="503" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A503" s="1"/>
-      <c r="L503" s="6"/>
-    </row>
-    <row r="504" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A504" s="1"/>
-      <c r="L504" s="6"/>
-    </row>
-    <row r="505" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A505" s="1"/>
-      <c r="L505" s="6"/>
-    </row>
-    <row r="506" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A506" s="1"/>
-      <c r="L506" s="6"/>
-    </row>
-    <row r="507" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A507" s="1"/>
-      <c r="L507" s="6"/>
-    </row>
-    <row r="508" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A508" s="1"/>
-      <c r="L508" s="6"/>
-    </row>
-    <row r="509" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A509" s="1"/>
-      <c r="L509" s="6"/>
-    </row>
-    <row r="510" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A510" s="1"/>
-      <c r="L510" s="6"/>
-    </row>
-    <row r="511" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A511" s="1"/>
-      <c r="L511" s="6"/>
-    </row>
-    <row r="512" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A512" s="1"/>
-      <c r="L512" s="6"/>
-    </row>
-    <row r="513" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A513" s="1"/>
-      <c r="L513" s="6"/>
-    </row>
-    <row r="514" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A514" s="1"/>
-      <c r="L514" s="6"/>
-    </row>
-    <row r="515" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A515" s="1"/>
-      <c r="L515" s="6"/>
-    </row>
-    <row r="516" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A516" s="1"/>
-      <c r="L516" s="6"/>
-    </row>
-    <row r="517" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A517" s="1"/>
-      <c r="L517" s="6"/>
-    </row>
-    <row r="518" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A518" s="1"/>
-      <c r="L518" s="6"/>
-    </row>
-    <row r="519" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A519" s="1"/>
-      <c r="L519" s="6"/>
-    </row>
-    <row r="520" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A520" s="1"/>
-      <c r="L520" s="6"/>
-    </row>
-    <row r="521" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A521" s="1"/>
-      <c r="L521" s="6"/>
-    </row>
-    <row r="522" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A522" s="1"/>
-      <c r="L522" s="6"/>
-    </row>
-    <row r="523" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A523" s="1"/>
-      <c r="L523" s="6"/>
-    </row>
-    <row r="524" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A524" s="1"/>
-      <c r="L524" s="6"/>
-    </row>
-    <row r="525" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A525" s="1"/>
-      <c r="L525" s="6"/>
-    </row>
-    <row r="526" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A526" s="1"/>
-      <c r="L526" s="6"/>
-    </row>
-    <row r="527" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A527" s="1"/>
-      <c r="L527" s="6"/>
-    </row>
-    <row r="528" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A528" s="1"/>
-      <c r="L528" s="6"/>
-    </row>
-    <row r="529" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A529" s="1"/>
-      <c r="L529" s="6"/>
-    </row>
-    <row r="530" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A530" s="1"/>
-      <c r="L530" s="6"/>
-    </row>
-    <row r="531" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A531" s="1"/>
-      <c r="L531" s="6"/>
-    </row>
-    <row r="532" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A532" s="1"/>
-      <c r="L532" s="6"/>
-    </row>
-    <row r="533" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A533" s="1"/>
-      <c r="L533" s="6"/>
-    </row>
-    <row r="534" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A534" s="1"/>
-      <c r="L534" s="6"/>
-    </row>
-    <row r="535" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A535" s="1"/>
-      <c r="L535" s="6"/>
-    </row>
-    <row r="536" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A536" s="1"/>
-      <c r="L536" s="6"/>
-    </row>
-    <row r="537" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A537" s="1"/>
-      <c r="L537" s="6"/>
-    </row>
-    <row r="538" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A538" s="1"/>
-      <c r="L538" s="6"/>
-    </row>
-    <row r="539" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A539" s="1"/>
-      <c r="L539" s="6"/>
-    </row>
-    <row r="540" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A540" s="1"/>
-      <c r="L540" s="6"/>
-    </row>
-    <row r="541" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A541" s="1"/>
-      <c r="L541" s="6"/>
-    </row>
-    <row r="542" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A542" s="1"/>
-      <c r="L542" s="6"/>
-    </row>
-    <row r="543" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A543" s="1"/>
-      <c r="L543" s="6"/>
-    </row>
-    <row r="544" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A544" s="1"/>
-      <c r="L544" s="6"/>
-    </row>
-    <row r="545" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A545" s="1"/>
-      <c r="L545" s="6"/>
-    </row>
-    <row r="546" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A546" s="1"/>
-      <c r="L546" s="6"/>
-    </row>
-    <row r="547" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A547" s="1"/>
-      <c r="L547" s="6"/>
-    </row>
-    <row r="548" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A548" s="1"/>
-      <c r="L548" s="6"/>
-    </row>
-    <row r="549" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A549" s="1"/>
-      <c r="L549" s="6"/>
-    </row>
-    <row r="550" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A550" s="1"/>
-      <c r="L550" s="6"/>
-    </row>
-    <row r="551" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A551" s="1"/>
-      <c r="L551" s="6"/>
-    </row>
-    <row r="552" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A552" s="1"/>
-      <c r="L552" s="6"/>
-    </row>
-    <row r="553" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A553" s="1"/>
-      <c r="L553" s="6"/>
-    </row>
-    <row r="554" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A554" s="1"/>
-      <c r="L554" s="6"/>
-    </row>
-    <row r="555" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A555" s="1"/>
-      <c r="L555" s="6"/>
-    </row>
-    <row r="556" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A556" s="1"/>
-      <c r="L556" s="6"/>
-    </row>
-    <row r="557" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A557" s="1"/>
-      <c r="L557" s="6"/>
-    </row>
-    <row r="558" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A558" s="1"/>
-      <c r="L558" s="6"/>
-    </row>
-    <row r="559" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A559" s="1"/>
-      <c r="L559" s="6"/>
-    </row>
-    <row r="560" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A560" s="1"/>
-      <c r="L560" s="6"/>
-    </row>
-    <row r="561" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A561" s="1"/>
-      <c r="L561" s="6"/>
-    </row>
-    <row r="562" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A562" s="1"/>
-      <c r="L562" s="6"/>
-    </row>
-    <row r="563" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A563" s="1"/>
-      <c r="L563" s="6"/>
-    </row>
-    <row r="564" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A564" s="1"/>
-      <c r="L564" s="6"/>
-    </row>
-    <row r="565" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A565" s="1"/>
-      <c r="L565" s="6"/>
-    </row>
-    <row r="566" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A566" s="1"/>
-      <c r="L566" s="6"/>
-    </row>
-    <row r="567" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A567" s="1"/>
-      <c r="L567" s="6"/>
-    </row>
-    <row r="568" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A568" s="1"/>
-      <c r="L568" s="6"/>
-    </row>
-    <row r="569" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A569" s="1"/>
-      <c r="L569" s="6"/>
-    </row>
-    <row r="570" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A570" s="1"/>
-      <c r="L570" s="6"/>
-    </row>
-    <row r="571" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A571" s="1"/>
-      <c r="L571" s="6"/>
-    </row>
-    <row r="572" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A572" s="1"/>
-      <c r="L572" s="6"/>
-    </row>
-    <row r="573" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A573" s="1"/>
-      <c r="L573" s="6"/>
-    </row>
-    <row r="574" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A574" s="1"/>
-      <c r="L574" s="6"/>
-    </row>
-    <row r="575" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A575" s="1"/>
-      <c r="L575" s="6"/>
-    </row>
-    <row r="576" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A576" s="1"/>
-      <c r="L576" s="6"/>
-    </row>
-    <row r="577" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A577" s="1"/>
-      <c r="L577" s="6"/>
-    </row>
-    <row r="578" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A578" s="1"/>
-      <c r="L578" s="6"/>
-    </row>
-    <row r="579" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A579" s="1"/>
-      <c r="L579" s="6"/>
-    </row>
-    <row r="580" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A580" s="1"/>
-      <c r="L580" s="6"/>
-    </row>
-    <row r="581" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A581" s="1"/>
-      <c r="L581" s="6"/>
-    </row>
-    <row r="582" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A582" s="1"/>
-      <c r="L582" s="6"/>
-    </row>
-    <row r="583" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A583" s="1"/>
-      <c r="L583" s="6"/>
-    </row>
-    <row r="584" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A584" s="1"/>
-      <c r="L584" s="6"/>
-    </row>
-    <row r="585" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A585" s="1"/>
-      <c r="L585" s="6"/>
-    </row>
-    <row r="586" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A586" s="1"/>
-      <c r="L586" s="6"/>
-    </row>
-    <row r="587" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A587" s="1"/>
-      <c r="L587" s="6"/>
-    </row>
-    <row r="588" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A588" s="1"/>
-      <c r="L588" s="6"/>
-    </row>
-    <row r="589" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A589" s="1"/>
-      <c r="L589" s="6"/>
-    </row>
-    <row r="590" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A590" s="1"/>
-      <c r="L590" s="6"/>
-    </row>
-    <row r="591" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A591" s="1"/>
-      <c r="L591" s="6"/>
-    </row>
-    <row r="592" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A592" s="1"/>
-      <c r="L592" s="6"/>
-    </row>
-    <row r="593" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A593" s="1"/>
-      <c r="L593" s="6"/>
-    </row>
-    <row r="594" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A594" s="1"/>
-      <c r="L594" s="6"/>
-    </row>
-    <row r="595" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A595" s="1"/>
-      <c r="L595" s="6"/>
-    </row>
-    <row r="596" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A596" s="1"/>
-      <c r="L596" s="6"/>
-    </row>
-    <row r="597" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A597" s="1"/>
-      <c r="L597" s="6"/>
-    </row>
-    <row r="598" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A598" s="1"/>
-      <c r="L598" s="6"/>
-    </row>
-    <row r="599" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A599" s="1"/>
-      <c r="L599" s="6"/>
-    </row>
-    <row r="600" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A600" s="1"/>
-      <c r="L600" s="6"/>
-    </row>
-    <row r="601" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A601" s="1"/>
-      <c r="L601" s="6"/>
-    </row>
-    <row r="602" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A602" s="1"/>
-      <c r="L602" s="6"/>
-    </row>
-    <row r="603" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A603" s="1"/>
-      <c r="L603" s="6"/>
-    </row>
-    <row r="604" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A604" s="1"/>
-      <c r="L604" s="6"/>
-    </row>
-    <row r="605" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A605" s="1"/>
-      <c r="L605" s="6"/>
-    </row>
-    <row r="606" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A606" s="1"/>
-      <c r="L606" s="6"/>
-    </row>
-    <row r="607" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A607" s="1"/>
-      <c r="L607" s="6"/>
-    </row>
-    <row r="608" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A608" s="1"/>
-      <c r="L608" s="6"/>
-    </row>
-    <row r="609" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A609" s="1"/>
-      <c r="L609" s="6"/>
-    </row>
-    <row r="610" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A610" s="1"/>
-      <c r="L610" s="6"/>
-    </row>
-    <row r="611" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A611" s="1"/>
-      <c r="L611" s="6"/>
-    </row>
-    <row r="612" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A612" s="1"/>
-      <c r="L612" s="6"/>
-    </row>
-    <row r="613" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A613" s="1"/>
-      <c r="L613" s="6"/>
-    </row>
-    <row r="614" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A614" s="1"/>
-      <c r="L614" s="6"/>
-    </row>
-    <row r="615" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A615" s="1"/>
-      <c r="L615" s="6"/>
-    </row>
-    <row r="616" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A616" s="1"/>
-      <c r="L616" s="6"/>
-    </row>
-    <row r="617" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A617" s="1"/>
-      <c r="L617" s="6"/>
-    </row>
-    <row r="618" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A618" s="1"/>
-      <c r="L618" s="6"/>
-    </row>
-    <row r="619" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A619" s="1"/>
-      <c r="L619" s="6"/>
-    </row>
-    <row r="620" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A620" s="1"/>
-      <c r="L620" s="6"/>
-    </row>
-    <row r="621" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A621" s="1"/>
-      <c r="L621" s="6"/>
-    </row>
-    <row r="622" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A622" s="1"/>
-      <c r="L622" s="6"/>
-    </row>
-    <row r="623" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A623" s="1"/>
-      <c r="L623" s="6"/>
-    </row>
-    <row r="624" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A624" s="1"/>
-      <c r="L624" s="6"/>
-    </row>
-    <row r="625" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A625" s="1"/>
-      <c r="L625" s="6"/>
-    </row>
-    <row r="626" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A626" s="1"/>
-      <c r="L626" s="6"/>
-    </row>
-    <row r="627" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A627" s="1"/>
-      <c r="L627" s="6"/>
-    </row>
-    <row r="628" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A628" s="1"/>
-      <c r="L628" s="6"/>
-    </row>
-    <row r="629" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A629" s="1"/>
-      <c r="L629" s="6"/>
-    </row>
-    <row r="630" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A630" s="1"/>
-      <c r="L630" s="6"/>
-    </row>
-    <row r="631" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A631" s="1"/>
-      <c r="L631" s="6"/>
-    </row>
-    <row r="632" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A632" s="1"/>
-      <c r="L632" s="6"/>
-    </row>
-    <row r="633" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A633" s="1"/>
-      <c r="L633" s="6"/>
-    </row>
-    <row r="634" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A634" s="1"/>
-      <c r="L634" s="6"/>
-    </row>
-    <row r="635" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A635" s="1"/>
-      <c r="L635" s="6"/>
-    </row>
-    <row r="636" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A636" s="1"/>
-      <c r="L636" s="6"/>
-    </row>
-    <row r="637" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A637" s="1"/>
-      <c r="L637" s="6"/>
-    </row>
-    <row r="638" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A638" s="1"/>
-      <c r="L638" s="6"/>
-    </row>
-    <row r="639" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A639" s="1"/>
-      <c r="L639" s="6"/>
-    </row>
-    <row r="640" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A640" s="1"/>
-      <c r="L640" s="6"/>
-    </row>
-    <row r="641" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A641" s="1"/>
-      <c r="L641" s="6"/>
-    </row>
-    <row r="642" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A642" s="1"/>
-      <c r="L642" s="6"/>
-    </row>
-    <row r="643" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A643" s="1"/>
-      <c r="L643" s="6"/>
-    </row>
-    <row r="644" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A644" s="1"/>
-      <c r="L644" s="6"/>
-    </row>
-    <row r="645" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A645" s="1"/>
-      <c r="L645" s="6"/>
-    </row>
-    <row r="646" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A646" s="1"/>
-      <c r="L646" s="6"/>
-    </row>
-    <row r="647" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A647" s="1"/>
-      <c r="L647" s="6"/>
-    </row>
-    <row r="648" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A648" s="1"/>
-      <c r="L648" s="6"/>
-    </row>
-    <row r="649" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A649" s="1"/>
-      <c r="L649" s="6"/>
-    </row>
-    <row r="650" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A650" s="1"/>
-      <c r="L650" s="6"/>
-    </row>
-    <row r="651" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A651" s="1"/>
-      <c r="L651" s="6"/>
-    </row>
-    <row r="652" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A652" s="1"/>
-      <c r="L652" s="6"/>
-    </row>
-    <row r="653" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A653" s="1"/>
-      <c r="L653" s="6"/>
-    </row>
-    <row r="654" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A654" s="1"/>
-      <c r="L654" s="6"/>
-    </row>
-    <row r="655" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A655" s="1"/>
-      <c r="L655" s="6"/>
-    </row>
-    <row r="656" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A656" s="1"/>
-      <c r="L656" s="6"/>
-    </row>
-    <row r="657" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A657" s="1"/>
-      <c r="L657" s="6"/>
-    </row>
-    <row r="658" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A658" s="1"/>
-      <c r="L658" s="6"/>
-    </row>
-    <row r="659" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A659" s="1"/>
-      <c r="L659" s="6"/>
-    </row>
-    <row r="660" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A660" s="1"/>
-      <c r="L660" s="6"/>
-    </row>
-    <row r="661" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A661" s="1"/>
-      <c r="L661" s="6"/>
-    </row>
-    <row r="662" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A662" s="1"/>
-      <c r="L662" s="6"/>
-    </row>
-    <row r="663" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A663" s="1"/>
-      <c r="L663" s="6"/>
-    </row>
-    <row r="664" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A664" s="1"/>
-      <c r="L664" s="6"/>
-    </row>
-    <row r="665" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A665" s="1"/>
-      <c r="L665" s="6"/>
-    </row>
-    <row r="666" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A666" s="1"/>
-      <c r="L666" s="6"/>
-    </row>
-    <row r="667" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A667" s="1"/>
-      <c r="L667" s="6"/>
-    </row>
-    <row r="668" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A668" s="1"/>
-      <c r="L668" s="6"/>
-    </row>
-    <row r="669" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A669" s="1"/>
-      <c r="L669" s="6"/>
-    </row>
-    <row r="670" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A670" s="1"/>
-      <c r="L670" s="6"/>
-    </row>
-    <row r="671" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A671" s="1"/>
-      <c r="L671" s="6"/>
-    </row>
-    <row r="672" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A672" s="1"/>
-      <c r="L672" s="6"/>
-    </row>
-    <row r="673" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A673" s="1"/>
-      <c r="L673" s="6"/>
-    </row>
-    <row r="674" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A674" s="1"/>
-      <c r="L674" s="6"/>
-    </row>
-    <row r="675" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A675" s="1"/>
-      <c r="L675" s="6"/>
-    </row>
-    <row r="676" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A676" s="1"/>
-      <c r="L676" s="6"/>
-    </row>
-    <row r="677" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A677" s="1"/>
-      <c r="L677" s="6"/>
-    </row>
-    <row r="678" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A678" s="1"/>
-      <c r="L678" s="6"/>
-    </row>
-    <row r="679" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A679" s="1"/>
-      <c r="L679" s="6"/>
-    </row>
-    <row r="680" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A680" s="1"/>
-      <c r="L680" s="6"/>
-    </row>
-    <row r="681" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A681" s="1"/>
-      <c r="L681" s="6"/>
-    </row>
-    <row r="682" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A682" s="1"/>
-      <c r="L682" s="6"/>
-    </row>
-    <row r="683" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A683" s="1"/>
-      <c r="L683" s="6"/>
-    </row>
-    <row r="684" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A684" s="1"/>
-      <c r="L684" s="6"/>
-    </row>
-    <row r="685" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A685" s="1"/>
-      <c r="L685" s="6"/>
-    </row>
-    <row r="686" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A686" s="1"/>
-      <c r="L686" s="6"/>
-    </row>
-    <row r="687" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A687" s="1"/>
-      <c r="L687" s="6"/>
-    </row>
-    <row r="688" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A688" s="1"/>
-      <c r="L688" s="6"/>
-    </row>
-    <row r="689" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A689" s="1"/>
-      <c r="L689" s="6"/>
-    </row>
-    <row r="690" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A690" s="1"/>
-      <c r="L690" s="6"/>
-    </row>
-    <row r="691" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A691" s="1"/>
-      <c r="L691" s="6"/>
-    </row>
-    <row r="692" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A692" s="1"/>
-      <c r="L692" s="6"/>
-    </row>
-    <row r="693" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A693" s="1"/>
-      <c r="L693" s="6"/>
-    </row>
-    <row r="694" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A694" s="1"/>
-      <c r="L694" s="6"/>
-    </row>
-    <row r="695" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A695" s="1"/>
-      <c r="L695" s="6"/>
-    </row>
-    <row r="696" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A696" s="1"/>
-      <c r="L696" s="6"/>
-    </row>
-    <row r="697" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A697" s="1"/>
-      <c r="L697" s="6"/>
-    </row>
-    <row r="698" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A698" s="1"/>
-      <c r="L698" s="6"/>
-    </row>
-    <row r="699" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A699" s="1"/>
-      <c r="L699" s="6"/>
-    </row>
-    <row r="700" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A700" s="1"/>
-      <c r="L700" s="6"/>
-    </row>
-    <row r="701" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A701" s="1"/>
-      <c r="L701" s="6"/>
-    </row>
-    <row r="702" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A702" s="1"/>
-      <c r="L702" s="6"/>
-    </row>
-    <row r="703" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A703" s="1"/>
-      <c r="L703" s="6"/>
-    </row>
-    <row r="704" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A704" s="1"/>
-      <c r="L704" s="6"/>
-    </row>
-    <row r="705" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A705" s="1"/>
-      <c r="L705" s="6"/>
-    </row>
-    <row r="706" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A706" s="1"/>
-      <c r="L706" s="6"/>
-    </row>
-    <row r="707" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A707" s="1"/>
-      <c r="L707" s="6"/>
-    </row>
-    <row r="708" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A708" s="1"/>
-      <c r="L708" s="6"/>
-    </row>
-    <row r="709" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A709" s="1"/>
-      <c r="L709" s="6"/>
-    </row>
-    <row r="710" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A710" s="1"/>
-      <c r="L710" s="6"/>
-    </row>
-    <row r="711" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A711" s="1"/>
-      <c r="L711" s="6"/>
-    </row>
-    <row r="712" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A712" s="1"/>
-      <c r="L712" s="6"/>
-    </row>
-    <row r="713" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A713" s="1"/>
-      <c r="L713" s="6"/>
-    </row>
-    <row r="714" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A714" s="1"/>
-      <c r="L714" s="6"/>
-    </row>
-    <row r="715" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A715" s="1"/>
-      <c r="L715" s="6"/>
-    </row>
-    <row r="716" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A716" s="1"/>
-      <c r="L716" s="6"/>
-    </row>
-    <row r="717" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A717" s="1"/>
-      <c r="L717" s="6"/>
-    </row>
-    <row r="718" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A718" s="1"/>
-      <c r="L718" s="6"/>
-    </row>
-    <row r="719" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A719" s="1"/>
-      <c r="L719" s="6"/>
-    </row>
-    <row r="720" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A720" s="1"/>
-      <c r="L720" s="6"/>
-    </row>
-    <row r="721" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A721" s="1"/>
-      <c r="L721" s="6"/>
-    </row>
-    <row r="722" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A722" s="1"/>
-      <c r="L722" s="6"/>
-    </row>
-    <row r="723" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A723" s="1"/>
-      <c r="L723" s="6"/>
-    </row>
-    <row r="724" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A724" s="1"/>
-      <c r="L724" s="6"/>
-    </row>
-    <row r="725" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A725" s="1"/>
-      <c r="L725" s="6"/>
-    </row>
-    <row r="726" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A726" s="1"/>
-      <c r="L726" s="6"/>
-    </row>
-    <row r="727" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A727" s="1"/>
-      <c r="L727" s="6"/>
-    </row>
-    <row r="728" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A728" s="1"/>
-      <c r="L728" s="6"/>
-    </row>
-    <row r="729" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A729" s="1"/>
-      <c r="L729" s="6"/>
-    </row>
-    <row r="730" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A730" s="1"/>
-      <c r="L730" s="6"/>
-    </row>
-    <row r="731" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A731" s="1"/>
-      <c r="L731" s="6"/>
-    </row>
-    <row r="732" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A732" s="1"/>
-      <c r="L732" s="6"/>
-    </row>
-    <row r="733" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A733" s="1"/>
-      <c r="L733" s="6"/>
-    </row>
-    <row r="734" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A734" s="1"/>
-      <c r="L734" s="6"/>
-    </row>
-    <row r="735" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A735" s="1"/>
-      <c r="L735" s="6"/>
-    </row>
-    <row r="736" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A736" s="1"/>
-      <c r="L736" s="6"/>
-    </row>
-    <row r="737" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A737" s="1"/>
-      <c r="L737" s="6"/>
-    </row>
-    <row r="738" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A738" s="1"/>
-      <c r="L738" s="6"/>
-    </row>
-    <row r="739" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A739" s="1"/>
-      <c r="L739" s="6"/>
-    </row>
-    <row r="740" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A740" s="1"/>
-      <c r="L740" s="6"/>
-    </row>
-    <row r="741" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A741" s="1"/>
-      <c r="L741" s="6"/>
-    </row>
-    <row r="742" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A742" s="1"/>
-      <c r="L742" s="6"/>
-    </row>
-    <row r="743" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A743" s="1"/>
-      <c r="L743" s="6"/>
-    </row>
-    <row r="744" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A744" s="1"/>
-      <c r="L744" s="6"/>
-    </row>
-    <row r="745" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A745" s="1"/>
-      <c r="L745" s="6"/>
-    </row>
-    <row r="746" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A746" s="1"/>
-      <c r="L746" s="6"/>
-    </row>
-    <row r="747" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A747" s="1"/>
-      <c r="L747" s="6"/>
-    </row>
-    <row r="748" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A748" s="1"/>
-      <c r="L748" s="6"/>
-    </row>
-    <row r="749" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A749" s="1"/>
-      <c r="L749" s="6"/>
-    </row>
-    <row r="750" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A750" s="1"/>
-      <c r="L750" s="6"/>
-    </row>
-    <row r="751" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A751" s="1"/>
-      <c r="L751" s="6"/>
-    </row>
-    <row r="752" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A752" s="1"/>
-      <c r="L752" s="6"/>
-    </row>
-    <row r="753" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A753" s="1"/>
-      <c r="L753" s="6"/>
-    </row>
-    <row r="754" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A754" s="1"/>
-      <c r="L754" s="6"/>
-    </row>
-    <row r="755" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A755" s="1"/>
-      <c r="L755" s="6"/>
-    </row>
-    <row r="756" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A756" s="1"/>
-      <c r="L756" s="6"/>
-    </row>
-    <row r="757" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A757" s="1"/>
-      <c r="L757" s="6"/>
-    </row>
-    <row r="758" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A758" s="1"/>
-      <c r="L758" s="6"/>
-    </row>
-    <row r="759" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A759" s="1"/>
-      <c r="L759" s="6"/>
-    </row>
-    <row r="760" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A760" s="1"/>
-      <c r="L760" s="6"/>
-    </row>
-    <row r="761" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A761" s="1"/>
-      <c r="L761" s="6"/>
-    </row>
-    <row r="762" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A762" s="1"/>
-      <c r="L762" s="6"/>
-    </row>
-    <row r="763" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A763" s="1"/>
-      <c r="L763" s="6"/>
-    </row>
-    <row r="764" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A764" s="1"/>
-      <c r="L764" s="6"/>
-    </row>
-    <row r="765" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A765" s="1"/>
-      <c r="L765" s="6"/>
-    </row>
-    <row r="766" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A766" s="1"/>
-      <c r="L766" s="6"/>
-    </row>
-    <row r="767" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A767" s="1"/>
-      <c r="L767" s="6"/>
-    </row>
-    <row r="768" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A768" s="1"/>
-      <c r="L768" s="6"/>
-    </row>
-    <row r="769" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A769" s="1"/>
-      <c r="L769" s="6"/>
-    </row>
-    <row r="770" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A770" s="1"/>
-      <c r="L770" s="6"/>
-    </row>
-    <row r="771" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A771" s="1"/>
-      <c r="L771" s="6"/>
-    </row>
-    <row r="772" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A772" s="1"/>
-      <c r="L772" s="6"/>
-    </row>
-    <row r="773" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A773" s="1"/>
-      <c r="L773" s="6"/>
-    </row>
-    <row r="774" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A774" s="1"/>
-      <c r="L774" s="6"/>
-    </row>
-    <row r="775" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A775" s="1"/>
-      <c r="L775" s="6"/>
-    </row>
-    <row r="776" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A776" s="1"/>
-      <c r="L776" s="6"/>
-    </row>
-    <row r="777" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A777" s="1"/>
-      <c r="L777" s="6"/>
-    </row>
-    <row r="778" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A778" s="1"/>
-      <c r="L778" s="6"/>
-    </row>
-    <row r="779" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A779" s="1"/>
-      <c r="L779" s="6"/>
-    </row>
-    <row r="780" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A780" s="1"/>
-      <c r="L780" s="6"/>
-    </row>
-    <row r="781" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A781" s="1"/>
-      <c r="L781" s="6"/>
-    </row>
-    <row r="782" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A782" s="1"/>
-      <c r="L782" s="6"/>
-    </row>
-    <row r="783" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A783" s="1"/>
-      <c r="L783" s="6"/>
-    </row>
-    <row r="784" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A784" s="1"/>
-      <c r="L784" s="6"/>
-    </row>
-    <row r="785" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A785" s="1"/>
-      <c r="L785" s="6"/>
-    </row>
-    <row r="786" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A786" s="1"/>
-      <c r="L786" s="6"/>
-    </row>
-    <row r="787" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A787" s="1"/>
-      <c r="L787" s="6"/>
-    </row>
-    <row r="788" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A788" s="1"/>
-      <c r="L788" s="6"/>
-    </row>
-    <row r="789" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A789" s="1"/>
-      <c r="L789" s="6"/>
-    </row>
-    <row r="790" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A790" s="1"/>
-      <c r="L790" s="6"/>
-    </row>
-    <row r="791" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A791" s="1"/>
-      <c r="L791" s="6"/>
-    </row>
-    <row r="792" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A792" s="1"/>
-      <c r="L792" s="6"/>
-    </row>
-    <row r="793" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A793" s="1"/>
-      <c r="L793" s="6"/>
-    </row>
-    <row r="794" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A794" s="1"/>
-      <c r="L794" s="6"/>
-    </row>
-    <row r="795" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A795" s="1"/>
-      <c r="L795" s="6"/>
-    </row>
-    <row r="796" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A796" s="1"/>
-      <c r="L796" s="6"/>
-    </row>
-    <row r="797" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A797" s="1"/>
-      <c r="L797" s="6"/>
-    </row>
-    <row r="798" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A798" s="1"/>
-      <c r="L798" s="6"/>
-    </row>
-    <row r="799" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A799" s="1"/>
-      <c r="L799" s="6"/>
-    </row>
-    <row r="800" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A800" s="1"/>
-      <c r="L800" s="6"/>
-    </row>
-    <row r="801" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A801" s="1"/>
-      <c r="L801" s="6"/>
-    </row>
-    <row r="802" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A802" s="1"/>
-      <c r="L802" s="6"/>
-    </row>
-    <row r="803" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A803" s="1"/>
-      <c r="L803" s="6"/>
-    </row>
-    <row r="804" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A804" s="1"/>
-      <c r="L804" s="6"/>
-    </row>
-    <row r="805" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A805" s="1"/>
-      <c r="L805" s="6"/>
-    </row>
-    <row r="806" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A806" s="1"/>
-      <c r="L806" s="6"/>
-    </row>
-    <row r="807" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A807" s="1"/>
-      <c r="L807" s="6"/>
-    </row>
-    <row r="808" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A808" s="1"/>
-      <c r="L808" s="6"/>
-    </row>
-    <row r="809" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A809" s="1"/>
-      <c r="L809" s="6"/>
-    </row>
-    <row r="810" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A810" s="1"/>
-      <c r="L810" s="6"/>
-    </row>
-    <row r="811" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A811" s="1"/>
-      <c r="L811" s="6"/>
-    </row>
-    <row r="812" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A812" s="1"/>
-      <c r="L812" s="6"/>
-    </row>
-    <row r="813" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A813" s="1"/>
-      <c r="L813" s="6"/>
-    </row>
-    <row r="814" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A814" s="1"/>
-      <c r="L814" s="6"/>
-    </row>
-    <row r="815" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A815" s="1"/>
-      <c r="L815" s="6"/>
-    </row>
-    <row r="816" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A816" s="1"/>
-      <c r="L816" s="6"/>
-    </row>
-    <row r="817" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A817" s="1"/>
-      <c r="L817" s="6"/>
-    </row>
-    <row r="818" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A818" s="1"/>
-      <c r="L818" s="6"/>
-    </row>
-    <row r="819" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A819" s="1"/>
-      <c r="L819" s="6"/>
-    </row>
-    <row r="820" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A820" s="1"/>
-      <c r="L820" s="6"/>
-    </row>
-    <row r="821" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A821" s="1"/>
-      <c r="L821" s="6"/>
-    </row>
-    <row r="822" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A822" s="1"/>
-      <c r="L822" s="6"/>
-    </row>
-    <row r="823" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A823" s="1"/>
-      <c r="L823" s="6"/>
-    </row>
-    <row r="824" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A824" s="1"/>
-      <c r="L824" s="6"/>
-    </row>
-    <row r="825" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A825" s="1"/>
-      <c r="L825" s="6"/>
-    </row>
-    <row r="826" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A826" s="1"/>
-      <c r="L826" s="6"/>
-    </row>
-    <row r="827" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A827" s="1"/>
-      <c r="L827" s="6"/>
-    </row>
-    <row r="828" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A828" s="1"/>
-      <c r="L828" s="6"/>
-    </row>
-    <row r="829" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A829" s="1"/>
-      <c r="L829" s="6"/>
-    </row>
-    <row r="830" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A830" s="1"/>
-      <c r="L830" s="6"/>
-    </row>
-    <row r="831" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A831" s="1"/>
-      <c r="L831" s="6"/>
-    </row>
-    <row r="832" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A832" s="1"/>
-      <c r="L832" s="6"/>
-    </row>
-    <row r="833" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A833" s="1"/>
-      <c r="L833" s="6"/>
-    </row>
-    <row r="834" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A834" s="1"/>
-      <c r="L834" s="6"/>
-    </row>
-    <row r="835" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A835" s="1"/>
-      <c r="L835" s="6"/>
-    </row>
-    <row r="836" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A836" s="1"/>
-      <c r="L836" s="6"/>
-    </row>
-    <row r="837" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A837" s="1"/>
-      <c r="L837" s="6"/>
-    </row>
-    <row r="838" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A838" s="1"/>
-      <c r="L838" s="6"/>
-    </row>
-    <row r="839" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A839" s="1"/>
-      <c r="L839" s="6"/>
-    </row>
-    <row r="840" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A840" s="1"/>
-      <c r="L840" s="6"/>
-    </row>
-    <row r="841" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A841" s="1"/>
-      <c r="L841" s="6"/>
-    </row>
-    <row r="842" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A842" s="1"/>
-      <c r="L842" s="6"/>
-    </row>
-    <row r="843" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A843" s="1"/>
-      <c r="L843" s="6"/>
-    </row>
-    <row r="844" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A844" s="1"/>
-      <c r="L844" s="6"/>
-    </row>
-    <row r="845" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A845" s="1"/>
-      <c r="L845" s="6"/>
-    </row>
-    <row r="846" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A846" s="1"/>
-      <c r="L846" s="6"/>
-    </row>
-    <row r="847" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A847" s="1"/>
-      <c r="L847" s="6"/>
-    </row>
-    <row r="848" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A848" s="1"/>
-      <c r="L848" s="6"/>
-    </row>
-    <row r="849" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A849" s="1"/>
-      <c r="L849" s="6"/>
-    </row>
-    <row r="850" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A850" s="1"/>
-      <c r="L850" s="6"/>
-    </row>
-    <row r="851" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A851" s="1"/>
-      <c r="L851" s="6"/>
-    </row>
-    <row r="852" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A852" s="1"/>
-      <c r="L852" s="6"/>
-    </row>
-    <row r="853" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A853" s="1"/>
-      <c r="L853" s="6"/>
-    </row>
-    <row r="854" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A854" s="1"/>
-      <c r="L854" s="6"/>
-    </row>
-    <row r="855" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A855" s="1"/>
-      <c r="L855" s="6"/>
-    </row>
-    <row r="856" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A856" s="1"/>
-      <c r="L856" s="6"/>
-    </row>
-    <row r="857" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A857" s="1"/>
-      <c r="L857" s="6"/>
-    </row>
-    <row r="858" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A858" s="1"/>
-      <c r="L858" s="6"/>
-    </row>
-    <row r="859" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A859" s="1"/>
-      <c r="L859" s="6"/>
-    </row>
-    <row r="860" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A860" s="1"/>
-      <c r="L860" s="6"/>
-    </row>
-    <row r="861" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A861" s="1"/>
-      <c r="L861" s="6"/>
-    </row>
-    <row r="862" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A862" s="1"/>
-      <c r="L862" s="6"/>
-    </row>
-    <row r="863" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A863" s="1"/>
-      <c r="L863" s="6"/>
-    </row>
-    <row r="864" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A864" s="1"/>
-      <c r="L864" s="6"/>
-    </row>
-    <row r="865" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A865" s="1"/>
-      <c r="L865" s="6"/>
-    </row>
-    <row r="866" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A866" s="1"/>
-      <c r="L866" s="6"/>
-    </row>
-    <row r="867" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A867" s="1"/>
-      <c r="L867" s="6"/>
-    </row>
-    <row r="868" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A868" s="1"/>
-      <c r="L868" s="6"/>
-    </row>
-    <row r="869" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A869" s="1"/>
-      <c r="L869" s="6"/>
-    </row>
-    <row r="870" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A870" s="1"/>
-      <c r="L870" s="6"/>
-    </row>
-    <row r="871" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A871" s="1"/>
-      <c r="L871" s="6"/>
-    </row>
-    <row r="872" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A872" s="1"/>
-      <c r="L872" s="6"/>
-    </row>
-    <row r="873" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A873" s="1"/>
-      <c r="L873" s="6"/>
-    </row>
-    <row r="874" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A874" s="1"/>
-      <c r="L874" s="6"/>
-    </row>
-    <row r="875" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A875" s="1"/>
-      <c r="L875" s="6"/>
-    </row>
-    <row r="876" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A876" s="1"/>
-      <c r="L876" s="6"/>
-    </row>
-    <row r="877" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A877" s="1"/>
-      <c r="L877" s="6"/>
-    </row>
-    <row r="878" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A878" s="1"/>
-      <c r="L878" s="6"/>
-    </row>
-    <row r="879" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A879" s="1"/>
-      <c r="L879" s="6"/>
-    </row>
-    <row r="880" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A880" s="1"/>
-      <c r="L880" s="6"/>
-    </row>
-    <row r="881" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A881" s="1"/>
-      <c r="L881" s="6"/>
-    </row>
-    <row r="882" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A882" s="1"/>
-      <c r="L882" s="6"/>
-    </row>
-    <row r="883" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A883" s="1"/>
-      <c r="L883" s="6"/>
-    </row>
-    <row r="884" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A884" s="1"/>
-      <c r="L884" s="6"/>
-    </row>
-    <row r="885" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A885" s="1"/>
-      <c r="L885" s="6"/>
-    </row>
-    <row r="886" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A886" s="1"/>
-      <c r="L886" s="6"/>
-    </row>
-    <row r="887" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A887" s="1"/>
-      <c r="L887" s="6"/>
-    </row>
-    <row r="888" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A888" s="1"/>
-      <c r="L888" s="6"/>
-    </row>
-    <row r="889" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A889" s="1"/>
-      <c r="L889" s="6"/>
-    </row>
-    <row r="890" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A890" s="1"/>
-      <c r="L890" s="6"/>
-    </row>
-    <row r="891" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A891" s="1"/>
-      <c r="L891" s="6"/>
-    </row>
-    <row r="892" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A892" s="1"/>
-      <c r="L892" s="6"/>
-    </row>
-    <row r="893" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A893" s="1"/>
-      <c r="L893" s="6"/>
-    </row>
-    <row r="894" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A894" s="1"/>
-      <c r="L894" s="6"/>
-    </row>
-    <row r="895" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A895" s="1"/>
-      <c r="L895" s="6"/>
-    </row>
-    <row r="896" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A896" s="1"/>
-      <c r="L896" s="6"/>
-    </row>
-    <row r="897" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A897" s="1"/>
-      <c r="L897" s="6"/>
-    </row>
-    <row r="898" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A898" s="1"/>
-      <c r="L898" s="6"/>
-    </row>
-    <row r="899" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A899" s="1"/>
-      <c r="L899" s="6"/>
-    </row>
-    <row r="900" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A900" s="1"/>
-      <c r="L900" s="6"/>
-    </row>
-    <row r="901" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A901" s="1"/>
-      <c r="L901" s="6"/>
-    </row>
-    <row r="902" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A902" s="1"/>
-      <c r="L902" s="6"/>
-    </row>
-    <row r="903" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A903" s="1"/>
-      <c r="L903" s="6"/>
-    </row>
-    <row r="904" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A904" s="1"/>
-      <c r="L904" s="6"/>
-    </row>
-    <row r="905" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A905" s="1"/>
-      <c r="L905" s="6"/>
-    </row>
-    <row r="906" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A906" s="1"/>
-      <c r="L906" s="6"/>
-    </row>
-    <row r="907" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A907" s="1"/>
-      <c r="L907" s="6"/>
-    </row>
-    <row r="908" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A908" s="1"/>
-      <c r="L908" s="6"/>
-    </row>
-    <row r="909" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A909" s="1"/>
-      <c r="L909" s="6"/>
-    </row>
-    <row r="910" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A910" s="1"/>
-      <c r="L910" s="6"/>
-    </row>
-    <row r="911" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A911" s="1"/>
-      <c r="L911" s="6"/>
-    </row>
-    <row r="912" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A912" s="1"/>
-      <c r="L912" s="6"/>
-    </row>
-    <row r="913" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A913" s="1"/>
-      <c r="L913" s="6"/>
-    </row>
-    <row r="914" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A914" s="1"/>
-      <c r="L914" s="6"/>
-    </row>
-    <row r="915" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A915" s="1"/>
-      <c r="L915" s="6"/>
-    </row>
-    <row r="916" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A916" s="1"/>
-      <c r="L916" s="6"/>
-    </row>
-    <row r="917" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A917" s="1"/>
-      <c r="L917" s="6"/>
-    </row>
-    <row r="918" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A918" s="1"/>
-      <c r="L918" s="6"/>
-    </row>
-    <row r="919" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A919" s="1"/>
-      <c r="L919" s="6"/>
-    </row>
-    <row r="920" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A920" s="1"/>
-      <c r="L920" s="6"/>
-    </row>
-    <row r="921" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A921" s="1"/>
-      <c r="L921" s="6"/>
-    </row>
-    <row r="922" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A922" s="1"/>
-      <c r="L922" s="6"/>
-    </row>
-    <row r="923" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A923" s="1"/>
-      <c r="L923" s="6"/>
-    </row>
-    <row r="924" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A924" s="1"/>
-      <c r="L924" s="6"/>
-    </row>
-    <row r="925" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A925" s="1"/>
-      <c r="L925" s="6"/>
-    </row>
-    <row r="926" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A926" s="1"/>
-      <c r="L926" s="6"/>
-    </row>
-    <row r="927" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A927" s="1"/>
-      <c r="L927" s="6"/>
-    </row>
-    <row r="928" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A928" s="1"/>
-      <c r="L928" s="6"/>
-    </row>
-    <row r="929" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A929" s="1"/>
-      <c r="L929" s="6"/>
-    </row>
-    <row r="930" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A930" s="1"/>
-      <c r="L930" s="6"/>
-    </row>
-    <row r="931" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A931" s="1"/>
-      <c r="L931" s="6"/>
-    </row>
-    <row r="932" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A932" s="1"/>
-      <c r="L932" s="6"/>
-    </row>
-    <row r="933" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A933" s="1"/>
-      <c r="L933" s="6"/>
-    </row>
-    <row r="934" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A934" s="1"/>
-      <c r="L934" s="6"/>
-    </row>
-    <row r="935" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A935" s="1"/>
-      <c r="L935" s="6"/>
-    </row>
-    <row r="936" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A936" s="1"/>
-      <c r="L936" s="6"/>
-    </row>
-    <row r="937" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A937" s="1"/>
-      <c r="L937" s="6"/>
-    </row>
-    <row r="938" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A938" s="1"/>
-      <c r="L938" s="6"/>
-    </row>
-    <row r="939" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A939" s="1"/>
-      <c r="L939" s="6"/>
-    </row>
-    <row r="940" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A940" s="1"/>
-      <c r="L940" s="6"/>
-    </row>
-    <row r="941" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A941" s="1"/>
-      <c r="L941" s="6"/>
-    </row>
-    <row r="942" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A942" s="1"/>
-      <c r="L942" s="6"/>
-    </row>
-    <row r="943" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A943" s="1"/>
-      <c r="L943" s="6"/>
-    </row>
-    <row r="944" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A944" s="1"/>
-      <c r="L944" s="6"/>
-    </row>
-    <row r="945" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A945" s="1"/>
-      <c r="L945" s="6"/>
-    </row>
-    <row r="946" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A946" s="1"/>
-      <c r="L946" s="6"/>
-    </row>
-    <row r="947" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A947" s="1"/>
-      <c r="L947" s="6"/>
-    </row>
-    <row r="948" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A948" s="1"/>
-      <c r="L948" s="6"/>
-    </row>
-    <row r="949" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A949" s="1"/>
-      <c r="L949" s="6"/>
-    </row>
-    <row r="950" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A950" s="1"/>
-      <c r="L950" s="6"/>
-    </row>
-    <row r="951" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A951" s="1"/>
-      <c r="L951" s="6"/>
-    </row>
-    <row r="952" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A952" s="1"/>
-      <c r="L952" s="6"/>
-    </row>
-    <row r="953" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A953" s="1"/>
-      <c r="L953" s="6"/>
-    </row>
-    <row r="954" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A954" s="1"/>
-      <c r="L954" s="6"/>
-    </row>
-    <row r="955" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A955" s="1"/>
-      <c r="L955" s="6"/>
-    </row>
-    <row r="956" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A956" s="1"/>
-      <c r="L956" s="6"/>
-    </row>
-    <row r="957" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A957" s="1"/>
-      <c r="L957" s="6"/>
-    </row>
-    <row r="958" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A958" s="1"/>
-      <c r="L958" s="6"/>
-    </row>
-    <row r="959" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A959" s="1"/>
-      <c r="L959" s="6"/>
-    </row>
-    <row r="960" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A960" s="1"/>
-      <c r="L960" s="6"/>
-    </row>
-    <row r="961" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A961" s="1"/>
-      <c r="L961" s="6"/>
-    </row>
-    <row r="962" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A962" s="1"/>
-      <c r="L962" s="6"/>
-    </row>
-    <row r="963" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A963" s="1"/>
-      <c r="L963" s="6"/>
-    </row>
-    <row r="964" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A964" s="1"/>
-      <c r="L964" s="6"/>
-    </row>
-    <row r="965" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A965" s="1"/>
-      <c r="L965" s="6"/>
-    </row>
-    <row r="966" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A966" s="1"/>
-      <c r="L966" s="6"/>
-    </row>
-    <row r="967" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A967" s="1"/>
-      <c r="L967" s="6"/>
-    </row>
-    <row r="968" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A968" s="1"/>
-      <c r="L968" s="6"/>
-    </row>
-    <row r="969" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A969" s="1"/>
-      <c r="L969" s="6"/>
-    </row>
-    <row r="970" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A970" s="1"/>
-      <c r="L970" s="6"/>
-    </row>
-    <row r="971" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A971" s="1"/>
-      <c r="L971" s="6"/>
-    </row>
-    <row r="972" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A972" s="1"/>
-      <c r="L972" s="6"/>
-    </row>
-    <row r="973" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A973" s="1"/>
-      <c r="L973" s="6"/>
-    </row>
-    <row r="974" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A974" s="1"/>
-      <c r="L974" s="6"/>
-    </row>
-    <row r="975" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A975" s="1"/>
-      <c r="L975" s="6"/>
-    </row>
-    <row r="976" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A976" s="1"/>
-      <c r="L976" s="6"/>
-    </row>
-    <row r="977" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A977" s="1"/>
-      <c r="L977" s="6"/>
-    </row>
-    <row r="978" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A978" s="1"/>
-      <c r="L978" s="6"/>
-    </row>
-    <row r="979" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A979" s="1"/>
-      <c r="L979" s="6"/>
-    </row>
-    <row r="980" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A980" s="1"/>
-      <c r="L980" s="6"/>
-    </row>
-    <row r="981" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A981" s="1"/>
-      <c r="L981" s="6"/>
-    </row>
-    <row r="982" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A982" s="1"/>
-      <c r="L982" s="6"/>
-    </row>
-    <row r="983" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A983" s="1"/>
-      <c r="L983" s="6"/>
-    </row>
-    <row r="984" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A984" s="1"/>
-      <c r="L984" s="6"/>
-    </row>
-    <row r="985" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A985" s="1"/>
-      <c r="L985" s="6"/>
-    </row>
-    <row r="986" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A986" s="1"/>
-      <c r="L986" s="6"/>
-    </row>
-    <row r="987" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A987" s="1"/>
-      <c r="L987" s="6"/>
-    </row>
-    <row r="988" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A988" s="1"/>
-      <c r="L988" s="6"/>
-    </row>
-    <row r="989" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A989" s="1"/>
-      <c r="L989" s="6"/>
-    </row>
-    <row r="990" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A990" s="1"/>
-      <c r="L990" s="6"/>
-    </row>
-    <row r="991" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A991" s="1"/>
-      <c r="L991" s="6"/>
-    </row>
-    <row r="992" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A992" s="1"/>
-      <c r="L992" s="6"/>
-    </row>
-    <row r="993" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A993" s="1"/>
-      <c r="L993" s="6"/>
-    </row>
-    <row r="994" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A994" s="1"/>
-      <c r="L994" s="6"/>
-    </row>
-    <row r="995" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A995" s="1"/>
-      <c r="L995" s="6"/>
-    </row>
-    <row r="996" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A996" s="1"/>
-      <c r="L996" s="6"/>
-    </row>
-    <row r="997" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A997" s="1"/>
-      <c r="L997" s="6"/>
-    </row>
-    <row r="998" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A998" s="1"/>
-      <c r="L998" s="6"/>
-    </row>
-    <row r="999" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A999" s="1"/>
-      <c r="L999" s="6"/>
-    </row>
-    <row r="1000" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1000" s="1"/>
-      <c r="L1000" s="6"/>
-    </row>
-    <row r="1001" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1001" s="1"/>
-      <c r="L1001" s="6"/>
-    </row>
-    <row r="1002" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1002" s="1"/>
-      <c r="L1002" s="6"/>
-    </row>
-    <row r="1003" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1003" s="1"/>
-      <c r="L1003" s="6"/>
-    </row>
-    <row r="1004" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1004" s="1"/>
-      <c r="L1004" s="6"/>
-    </row>
-    <row r="1005" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1005" s="1"/>
-      <c r="L1005" s="6"/>
-    </row>
-    <row r="1006" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1006" s="1"/>
-      <c r="L1006" s="6"/>
-    </row>
-    <row r="1007" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1007" s="1"/>
-      <c r="L1007" s="6"/>
-    </row>
-    <row r="1008" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1008" s="1"/>
-      <c r="L1008" s="6"/>
-    </row>
-    <row r="1009" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1009" s="1"/>
-      <c r="L1009" s="6"/>
-    </row>
-    <row r="1010" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1010" s="1"/>
-      <c r="L1010" s="6"/>
-    </row>
-    <row r="1011" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1011" s="1"/>
-      <c r="L1011" s="6"/>
-    </row>
-    <row r="1012" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1012" s="1"/>
-      <c r="L1012" s="6"/>
-    </row>
-    <row r="1013" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1013" s="1"/>
-      <c r="L1013" s="6"/>
-    </row>
-    <row r="1014" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1014" s="1"/>
-      <c r="L1014" s="6"/>
-    </row>
-    <row r="1015" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1015" s="1"/>
-      <c r="L1015" s="6"/>
-    </row>
-    <row r="1016" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1016" s="1"/>
-      <c r="L1016" s="6"/>
-    </row>
-    <row r="1017" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1017" s="1"/>
-      <c r="L1017" s="6"/>
-    </row>
-    <row r="1018" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1018" s="1"/>
-      <c r="L1018" s="6"/>
-    </row>
-    <row r="1019" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1019" s="1"/>
-      <c r="L1019" s="6"/>
-    </row>
-    <row r="1020" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1020" s="1"/>
-      <c r="L1020" s="6"/>
-    </row>
-    <row r="1021" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1021" s="1"/>
-      <c r="L1021" s="6"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>